--- a/outcome/appendix/data/0_impact/HFRS.xlsx
+++ b/outcome/appendix/data/0_impact/HFRS.xlsx
@@ -409,7 +409,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>925.703896531585</v>
+        <v>928.610183307488</v>
       </c>
       <c r="C2" t="n">
         <v>657.90204333731</v>
@@ -418,10 +418,10 @@
         <v>563.026188248657</v>
       </c>
       <c r="E2" t="n">
-        <v>1207.65393933121</v>
+        <v>1207.65393937963</v>
       </c>
       <c r="F2" t="n">
-        <v>1309.62052613061</v>
+        <v>1309.62052616601</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -435,7 +435,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>618.079868739449</v>
+        <v>620.102499379593</v>
       </c>
       <c r="C3" t="n">
         <v>275.754891201288</v>
@@ -444,10 +444,10 @@
         <v>141.58697135949</v>
       </c>
       <c r="E3" t="n">
-        <v>975.606827144522</v>
+        <v>975.606827768128</v>
       </c>
       <c r="F3" t="n">
-        <v>1124.03919138662</v>
+        <v>1124.03919199931</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -461,7 +461,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>682.181073650612</v>
+        <v>680.441273958473</v>
       </c>
       <c r="C4" t="n">
         <v>342.487930986471</v>
@@ -470,10 +470,10 @@
         <v>178.169235913308</v>
       </c>
       <c r="E4" t="n">
-        <v>1032.72982435555</v>
+        <v>1032.72982523684</v>
       </c>
       <c r="F4" t="n">
-        <v>1195.68488850125</v>
+        <v>1195.68488938522</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -487,7 +487,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>690.820197476816</v>
+        <v>690.249360587196</v>
       </c>
       <c r="C5" t="n">
         <v>307.091675422235</v>
@@ -513,7 +513,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>923.276947091828</v>
+        <v>919.661116634931</v>
       </c>
       <c r="C6" t="n">
         <v>517.354411480028</v>
@@ -539,7 +539,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>934.992699312491</v>
+        <v>930.266955527421</v>
       </c>
       <c r="C7" t="n">
         <v>442.699640759256</v>
@@ -565,7 +565,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>645.088890512483</v>
+        <v>641.44942259676</v>
       </c>
       <c r="C8" t="n">
         <v>76.5123830022511</v>
@@ -591,7 +591,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>389.903872218867</v>
+        <v>386.150379199616</v>
       </c>
       <c r="C9" t="n">
         <v>-201.253478056388</v>
@@ -617,7 +617,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>339.192308702108</v>
+        <v>332.358082229193</v>
       </c>
       <c r="C10" t="n">
         <v>-259.09735813804</v>
@@ -643,7 +643,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>775.434772597794</v>
+        <v>776.39584810917</v>
       </c>
       <c r="C11" t="n">
         <v>222.640782765062</v>
@@ -669,7 +669,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1645.19964729124</v>
+        <v>1663.86040690547</v>
       </c>
       <c r="C12" t="n">
         <v>744.029390213237</v>
@@ -695,7 +695,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>1433.69085184678</v>
+        <v>1461.46925314232</v>
       </c>
       <c r="C13" t="n">
         <v>525.413453474838</v>
@@ -704,10 +704,10 @@
         <v>80.2189184040424</v>
       </c>
       <c r="E13" t="n">
-        <v>2245.58210432561</v>
+        <v>2399.97281549096</v>
       </c>
       <c r="F13" t="n">
-        <v>2652.59298002529</v>
+        <v>2815.00403001267</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
@@ -721,7 +721,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>923.252002521142</v>
+        <v>937.697595555976</v>
       </c>
       <c r="C14" t="n">
         <v>190.983223096197</v>
@@ -747,7 +747,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>595.776116227833</v>
+        <v>607.115037099402</v>
       </c>
       <c r="C15" t="n">
         <v>-141.330380192891</v>
@@ -773,7 +773,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>670.832414659532</v>
+        <v>673.354178733515</v>
       </c>
       <c r="C16" t="n">
         <v>-41.1754824728346</v>
@@ -799,7 +799,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>708.702365617861</v>
+        <v>710.908821347407</v>
       </c>
       <c r="C17" t="n">
         <v>-51.3169553118812</v>
@@ -825,7 +825,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>947.491965688905</v>
+        <v>937.993764595514</v>
       </c>
       <c r="C18" t="n">
         <v>179.188554742955</v>
@@ -851,7 +851,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>937.271972233423</v>
+        <v>927.232209217173</v>
       </c>
       <c r="C19" t="n">
         <v>121.358315896157</v>
@@ -877,7 +877,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>642.753620679704</v>
+        <v>640.41302813965</v>
       </c>
       <c r="C20" t="n">
         <v>-230.492257458161</v>
@@ -903,7 +903,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>397.69855720442</v>
+        <v>393.579423648084</v>
       </c>
       <c r="C21" t="n">
         <v>-495.814565795785</v>
@@ -929,7 +929,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>349.447571827639</v>
+        <v>339.042842502285</v>
       </c>
       <c r="C22" t="n">
         <v>-542.70325485642</v>
@@ -955,7 +955,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>767.536935565479</v>
+        <v>765.294646771488</v>
       </c>
       <c r="C23" t="n">
         <v>-51.2097579644837</v>
@@ -981,7 +981,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1605.47609695318</v>
+        <v>1638.29519047582</v>
       </c>
       <c r="C24" t="n">
         <v>188.171796124687</v>
@@ -1007,7 +1007,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>1415.55374778017</v>
+        <v>1474.68268757253</v>
       </c>
       <c r="C25" t="n">
         <v>110.95062220627</v>
@@ -1033,7 +1033,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>920.551995648234</v>
+        <v>949.872044923539</v>
       </c>
       <c r="C26" t="n">
         <v>-58.9097676073707</v>
@@ -1059,7 +1059,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>588.723575813484</v>
+        <v>609.895880215122</v>
       </c>
       <c r="C27" t="n">
         <v>-384.577321056472</v>
@@ -1085,7 +1085,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>655.455385906207</v>
+        <v>663.408728799013</v>
       </c>
       <c r="C28" t="n">
         <v>-278.294901554762</v>
@@ -1111,7 +1111,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>703.205876861949</v>
+        <v>709.637240798161</v>
       </c>
       <c r="C29" t="n">
         <v>-282.761623159912</v>
@@ -1137,7 +1137,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>965.22509390527</v>
+        <v>950.96669757891</v>
       </c>
       <c r="C30" t="n">
         <v>-46.9797305203684</v>
@@ -1163,7 +1163,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>947.492474421568</v>
+        <v>933.790496650616</v>
       </c>
       <c r="C31" t="n">
         <v>-99.8864624458917</v>
@@ -1189,7 +1189,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>638.737764554778</v>
+        <v>638.967496818121</v>
       </c>
       <c r="C32" t="n">
         <v>-447.127997897362</v>
@@ -1215,7 +1215,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>395.936295444742</v>
+        <v>395.211857028031</v>
       </c>
       <c r="C33" t="n">
         <v>-708.123036576777</v>
@@ -1241,7 +1241,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>353.96296740973</v>
+        <v>343.616950221313</v>
       </c>
       <c r="C34" t="n">
         <v>-750.938168140612</v>
@@ -1267,7 +1267,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>766.263966358072</v>
+        <v>759.218873924581</v>
       </c>
       <c r="C35" t="n">
         <v>-255.600587933543</v>
@@ -1293,7 +1293,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1575.82457421474</v>
+        <v>1613.64953815608</v>
       </c>
       <c r="C36" t="n">
         <v>-304.08472287563</v>
@@ -1319,7 +1319,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>1377.23652244763</v>
+        <v>1456.61846186569</v>
       </c>
       <c r="C37" t="n">
         <v>-260.756933798477</v>
@@ -1345,7 +1345,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>911.701381015312</v>
+        <v>949.858094438299</v>
       </c>
       <c r="C38" t="n">
         <v>-252.94729793569</v>
@@ -1371,7 +1371,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>585.381503854803</v>
+        <v>613.078858483085</v>
       </c>
       <c r="C39" t="n">
         <v>-575.502415058626</v>
